--- a/data/trans_orig/P33b_R1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF9F8B96-C90F-4B02-8F54-3A35DD1BBD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61B73F65-6695-4EEC-BAE2-6C6F1B3897C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F73F5A78-0203-472C-B726-DF923138EEB4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8CB0A15-4B3E-4D8D-B3C4-3C4AE85DDC08}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D407B7F-2801-4904-BB68-84D5ED746FB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786D28E1-5A56-4FCA-944F-AC9C8029BAB6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61B73F65-6695-4EEC-BAE2-6C6F1B3897C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D1CC7EE-FEBE-400C-9A1C-525CCAEB6802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8CB0A15-4B3E-4D8D-B3C4-3C4AE85DDC08}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3DE61B72-0079-4E88-8ECB-4301C6129B78}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>25,78%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
   </si>
   <si>
     <t>37,8%</t>
   </si>
   <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
   </si>
   <si>
     <t>33,06%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>74,22%</t>
   </si>
   <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>62,2%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
   </si>
   <si>
     <t>66,94%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
   </si>
   <si>
     <t>13,77%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
   </si>
   <si>
     <t>89,07%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
   </si>
   <si>
     <t>86,23%</t>
   </si>
   <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>10,06%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>89,94%</t>
   </si>
   <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>86,35%</t>
   </si>
   <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
   </si>
   <si>
     <t>88,09%</t>
   </si>
   <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>20,64%</t>
   </si>
   <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>86,86%</t>
   </si>
   <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>79,36%</t>
   </si>
   <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>82,89%</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786D28E1-5A56-4FCA-944F-AC9C8029BAB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289A90B4-9D73-4D02-A1D9-62E623885C15}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D1CC7EE-FEBE-400C-9A1C-525CCAEB6802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59141D54-2558-48FE-A1A3-44EF69C91648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3DE61B72-0079-4E88-8ECB-4301C6129B78}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40F1A98D-73E5-4A47-89AF-76CE25D9184D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>25,78%</t>
   </si>
   <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>37,8%</t>
   </si>
   <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
   </si>
   <si>
     <t>33,06%</t>
   </si>
   <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>74,22%</t>
   </si>
   <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
   </si>
   <si>
     <t>62,2%</t>
   </si>
   <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
   </si>
   <si>
     <t>66,94%</t>
   </si>
   <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,166 +137,166 @@
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,57%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
+    <t>14,92%</t>
   </si>
   <si>
     <t>89,07%</t>
   </si>
   <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
     <t>Universitarios</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>89,94%</t>
   </si>
   <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
   <si>
     <t>86,35%</t>
   </si>
   <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
   </si>
   <si>
     <t>88,09%</t>
   </si>
   <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>20,64%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
   </si>
   <si>
     <t>86,86%</t>
   </si>
   <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>79,36%</t>
   </si>
   <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
   </si>
   <si>
     <t>82,89%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289A90B4-9D73-4D02-A1D9-62E623885C15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712601CF-9E2E-4157-8203-0FD511041689}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59141D54-2558-48FE-A1A3-44EF69C91648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5065488-148F-427E-AD18-38CD1DC1E84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40F1A98D-73E5-4A47-89AF-76CE25D9184D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AB149A19-FD3B-433F-9A51-D8F75C3D3EF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,232 +71,232 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>29,93%</t>
   </si>
   <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>34,06%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>74,22%</t>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
   </si>
   <si>
     <t>70,07%</t>
   </si>
   <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>10,93%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
   <si>
     <t>90,35%</t>
   </si>
   <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712601CF-9E2E-4157-8203-0FD511041689}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE597AE4-0E6A-45D7-B534-0EBBCDBFC15D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>178</v>
       </c>
       <c r="D4" s="7">
-        <v>139618</v>
+        <v>128582</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>537</v>
       </c>
       <c r="I4" s="7">
-        <v>314959</v>
+        <v>277481</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>715</v>
       </c>
       <c r="N4" s="7">
-        <v>454577</v>
+        <v>406062</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>513</v>
       </c>
       <c r="D5" s="7">
-        <v>402016</v>
+        <v>386356</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>889</v>
       </c>
       <c r="I5" s="7">
-        <v>518232</v>
+        <v>475687</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>1402</v>
       </c>
       <c r="N5" s="7">
-        <v>920247</v>
+        <v>862045</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>833191</v>
+        <v>753168</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +964,7 @@
         <v>2117</v>
       </c>
       <c r="N6" s="7">
-        <v>1374824</v>
+        <v>1268107</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>251</v>
       </c>
       <c r="D7" s="7">
-        <v>236088</v>
+        <v>222433</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +1002,7 @@
         <v>557</v>
       </c>
       <c r="I7" s="7">
-        <v>371154</v>
+        <v>337750</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1017,7 @@
         <v>808</v>
       </c>
       <c r="N7" s="7">
-        <v>607242</v>
+        <v>560183</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>1740</v>
       </c>
       <c r="D8" s="7">
-        <v>1924857</v>
+        <v>2066864</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>2363</v>
       </c>
       <c r="I8" s="7">
-        <v>1877755</v>
+        <v>1899508</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1068,7 @@
         <v>4103</v>
       </c>
       <c r="N8" s="7">
-        <v>3802612</v>
+        <v>3966372</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1089,7 @@
         <v>1991</v>
       </c>
       <c r="D9" s="7">
-        <v>2160945</v>
+        <v>2289297</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1104,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248909</v>
+        <v>2237258</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1119,7 @@
         <v>4911</v>
       </c>
       <c r="N9" s="7">
-        <v>4409854</v>
+        <v>4526555</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>69</v>
       </c>
       <c r="D10" s="7">
-        <v>67735</v>
+        <v>65229</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1157,7 @@
         <v>145</v>
       </c>
       <c r="I10" s="7">
-        <v>97453</v>
+        <v>90239</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1172,7 @@
         <v>214</v>
       </c>
       <c r="N10" s="7">
-        <v>165188</v>
+        <v>155468</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1193,7 @@
         <v>612</v>
       </c>
       <c r="D11" s="7">
-        <v>605304</v>
+        <v>581394</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1208,7 @@
         <v>859</v>
       </c>
       <c r="I11" s="7">
-        <v>616433</v>
+        <v>570224</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>1471</v>
       </c>
       <c r="N11" s="7">
-        <v>1221738</v>
+        <v>1151618</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1244,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>498</v>
       </c>
       <c r="D13" s="7">
-        <v>443441</v>
+        <v>416243</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1312,7 @@
         <v>1239</v>
       </c>
       <c r="I13" s="7">
-        <v>783566</v>
+        <v>705470</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1327,7 @@
         <v>1737</v>
       </c>
       <c r="N13" s="7">
-        <v>1227007</v>
+        <v>1121713</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1348,7 +1348,7 @@
         <v>2865</v>
       </c>
       <c r="D14" s="7">
-        <v>2932177</v>
+        <v>3034616</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>4111</v>
       </c>
       <c r="I14" s="7">
-        <v>3012420</v>
+        <v>2945419</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
         <v>6976</v>
       </c>
       <c r="N14" s="7">
-        <v>5944597</v>
+        <v>5980035</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3375618</v>
+        <v>3450859</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>5350</v>
       </c>
       <c r="I15" s="7">
-        <v>3795986</v>
+        <v>3650889</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8713</v>
       </c>
       <c r="N15" s="7">
-        <v>7171604</v>
+        <v>7101748</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
